--- a/code/data/routes.xlsx
+++ b/code/data/routes.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,74 +400,58 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>121.746924348685</v>
+        <v>121.773870135207</v>
       </c>
       <c r="B3" t="n">
-        <v>31.1881769824992</v>
+        <v>31.1869698968695</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>121.773870135207</v>
+        <v>121.511163311648</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1869698968695</v>
+        <v>31.1405254182366</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>121.506727261692</v>
+        <v>121.533960720319</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1937708636097</v>
+        <v>31.1723261966618</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>121.459520619477</v>
+        <v>121.471828168427</v>
       </c>
       <c r="B6" t="n">
-        <v>31.1298333508394</v>
+        <v>31.2854382566527</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>121.387172859152</v>
+        <v>121.445246934034</v>
       </c>
       <c r="B7" t="n">
-        <v>31.1249290473356</v>
+        <v>31.3360136912376</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>121.409061703513</v>
+        <v>121.47601162795</v>
       </c>
       <c r="B8" t="n">
-        <v>31.1063955420626</v>
+        <v>31.3334486667153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>121.364393162531</v>
+        <v>121.604124514158</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1731525524602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="n">
-        <v>121.511163311648</v>
-      </c>
-      <c r="B10" t="n">
-        <v>31.1405254182366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="n">
-        <v>121.230262324458</v>
-      </c>
-      <c r="B11" t="n">
-        <v>31.0152307915435</v>
+        <v>31.3321037969327</v>
       </c>
     </row>
   </sheetData>
@@ -515,18 +499,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>121.487640064119</v>
+        <v>121.506727261692</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1761851610806</v>
+        <v>31.1937708636097</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>121.471575456181</v>
+        <v>121.533558672333</v>
       </c>
       <c r="B5" t="n">
-        <v>31.2344181428192</v>
+        <v>31.2139154956913</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -539,42 +523,42 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>121.401384292276</v>
+        <v>121.43313932485</v>
       </c>
       <c r="B7" t="n">
-        <v>31.2421279472235</v>
+        <v>31.2818215148076</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>121.359945503646</v>
+        <v>121.454646336302</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2135549549326</v>
+        <v>31.2588019463502</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>121.30639626003</v>
+        <v>121.40209303718</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1724883725493</v>
+        <v>31.2180210523892</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>121.318676931596</v>
+        <v>121.3124974853</v>
       </c>
       <c r="B10" t="n">
-        <v>31.1088349321382</v>
+        <v>31.2578455580037</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="n">
-        <v>121.238600547066</v>
+        <v>121.40997210505</v>
       </c>
       <c r="B11" t="n">
-        <v>31.0831798398981</v>
+        <v>31.3026948074137</v>
       </c>
     </row>
   </sheetData>
@@ -614,66 +598,66 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>121.700675726468</v>
+        <v>121.746924348685</v>
       </c>
       <c r="B3" t="n">
-        <v>31.1934103396</v>
+        <v>31.1881769824992</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>121.533960720319</v>
+        <v>121.529393896826</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1723261966618</v>
+        <v>31.25136435076</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>121.439640469256</v>
+        <v>121.471575456181</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1910390808541</v>
+        <v>31.2344181428192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>121.40209303718</v>
+        <v>121.489783526947</v>
       </c>
       <c r="B6" t="n">
-        <v>31.2180210523892</v>
+        <v>31.2621171339529</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>121.417223173704</v>
+        <v>121.425089224955</v>
       </c>
       <c r="B7" t="n">
-        <v>31.1972702422498</v>
+        <v>31.2562632026749</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>121.43313932485</v>
+        <v>121.401384292276</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2818215148076</v>
+        <v>31.2421279472235</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>121.522513215793</v>
+        <v>121.409061703513</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3130302421583</v>
+        <v>31.1063955420626</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>121.604124514158</v>
+        <v>121.273777676284</v>
       </c>
       <c r="B10" t="n">
-        <v>31.3321037969327</v>
+        <v>31.0960998484432</v>
       </c>
     </row>
   </sheetData>
@@ -713,66 +697,66 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>121.55235093558</v>
+        <v>121.700675726468</v>
       </c>
       <c r="B3" t="n">
-        <v>31.1548953962084</v>
+        <v>31.1934103396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>121.529393896826</v>
+        <v>121.504103558526</v>
       </c>
       <c r="B4" t="n">
-        <v>31.25136435076</v>
+        <v>31.2301120523971</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>121.489783526947</v>
+        <v>121.523280704171</v>
       </c>
       <c r="B5" t="n">
-        <v>31.2621171339529</v>
+        <v>31.2803897604602</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>121.471828168427</v>
+        <v>121.522513215793</v>
       </c>
       <c r="B6" t="n">
-        <v>31.2854382566527</v>
+        <v>31.3130302421583</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>121.47601162795</v>
+        <v>121.491086492494</v>
       </c>
       <c r="B7" t="n">
-        <v>31.3334486667153</v>
+        <v>31.3789819426817</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>121.445246934034</v>
+        <v>121.444298701623</v>
       </c>
       <c r="B8" t="n">
-        <v>31.3360136912376</v>
+        <v>31.312259258587</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>121.491086492494</v>
+        <v>121.42772715151</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3789819426817</v>
+        <v>31.3587423130982</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>121.42772715151</v>
+        <v>121.39001851695</v>
       </c>
       <c r="B10" t="n">
-        <v>31.3587423130982</v>
+        <v>31.2676995084141</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,66 +796,82 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>121.556704519879</v>
+        <v>121.55235093558</v>
       </c>
       <c r="B3" t="n">
-        <v>31.1826694270708</v>
+        <v>31.1548953962084</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>121.504103558526</v>
+        <v>121.487640064119</v>
       </c>
       <c r="B4" t="n">
-        <v>31.2301120523971</v>
+        <v>31.1761851610806</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>121.523280704171</v>
+        <v>121.459520619477</v>
       </c>
       <c r="B5" t="n">
-        <v>31.2803897604602</v>
+        <v>31.1298333508394</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>121.444298701623</v>
+        <v>121.439640469256</v>
       </c>
       <c r="B6" t="n">
-        <v>31.312259258587</v>
+        <v>31.1910390808541</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>121.40997210505</v>
+        <v>121.388412091579</v>
       </c>
       <c r="B7" t="n">
-        <v>31.3026948074137</v>
+        <v>31.1943549953381</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>121.3124974853</v>
+        <v>121.387172859152</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2578455580037</v>
+        <v>31.1249290473356</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>121.39001851695</v>
+        <v>121.397037102902</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2676995084141</v>
+        <v>31.0587985120887</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>121.271084910573</v>
+        <v>121.318676931596</v>
       </c>
       <c r="B10" t="n">
-        <v>31.273177521576</v>
+        <v>31.1088349321382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="n">
+        <v>121.230262324458</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31.0152307915435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="n">
+        <v>121.238600547066</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.0831798398981</v>
       </c>
     </row>
   </sheetData>
@@ -911,10 +911,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>121.533558672333</v>
+        <v>121.556704519879</v>
       </c>
       <c r="B3" t="n">
-        <v>31.2139154956913</v>
+        <v>31.1826694270708</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -927,50 +927,50 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>121.454646336302</v>
+        <v>121.417223173704</v>
       </c>
       <c r="B5" t="n">
-        <v>31.2588019463502</v>
+        <v>31.1972702422498</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>121.425089224955</v>
+        <v>121.359945503646</v>
       </c>
       <c r="B6" t="n">
-        <v>31.2562632026749</v>
+        <v>31.2135549549326</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>121.388412091579</v>
+        <v>121.341503761017</v>
       </c>
       <c r="B7" t="n">
-        <v>31.1943549953381</v>
+        <v>31.1565721584831</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>121.341503761017</v>
+        <v>121.364393162531</v>
       </c>
       <c r="B8" t="n">
-        <v>31.1565721584831</v>
+        <v>31.1731525524602</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>121.273777676284</v>
+        <v>121.30639626003</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0960998484432</v>
+        <v>31.1724883725493</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>121.397037102902</v>
+        <v>121.271084910573</v>
       </c>
       <c r="B10" t="n">
-        <v>31.0587985120887</v>
+        <v>31.273177521576</v>
       </c>
     </row>
   </sheetData>
